--- a/estoque_insulina.xlsx
+++ b/estoque_insulina.xlsx
@@ -1,83 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27206"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FACULDADE\FACULDADE 2023\CURSOS\CUURSO ALURA+GOOGLE+IAs\A1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93474CB0-26BF-4E6E-9DC0-AC28151312D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Data e Hora</t>
-  </si>
-  <si>
-    <t>Entrada/Saída</t>
-  </si>
-  <si>
-    <t>Atendente</t>
-  </si>
-  <si>
-    <t>Quantidade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESTOQUE ATUAL </t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -87,45 +55,117 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -204,6 +244,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -238,6 +279,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -261,7 +303,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -272,31 +313,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -318,7 +359,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -376,7 +417,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -389,13 +430,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -413,49 +453,224 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col width="18.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="12.7265625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="9.7265625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="10.7265625" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="13.54296875" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="15.1796875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="13.54296875" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Data e Hora</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Entrada/Saída</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Atendente</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Tipo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ESTOQUE ATUAL </t>
+        </is>
       </c>
       <c r="G1">
-        <f>SUMIF(B$2:B$1048576,"Entrada",D$2:D$1048576)-SUMIF(B$2:B$1048576,"Saída",D$2:D$1048576)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+        <f>SUMIF(B$2:B$1048576,"Entrada",D$2:D$1048576)-SUMIF(B$2:B$1048576,"Sa&amp;#237;da",D$2:D$1048576)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="D2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="D3" s="3" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1">
+      <c r="D4" s="3" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>06/05/2024 15:42:13</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>mathues</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>NPH</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>06/05/2024 15:42:19</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>mathues</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>06/05/2024 15:42:29</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Entrada</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>mathues</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>5</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>06/05/2024 15:42:35</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>mathues</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>06/05/2024 15:42:36</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>mathues</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Regular</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>06/05/2024 15:42:42</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Saída</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>mathues</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>NPH</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/estoque_insulina.xlsx
+++ b/estoque_insulina.xlsx
@@ -1,45 +1,78 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27206"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FACULDADE\FACULDADE 2023\CURSOS\CUURSO ALURA+GOOGLE+IAs\A1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1085F0A4-9B49-4ABA-864A-730BBA6902BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Data e Hora</t>
+  </si>
+  <si>
+    <t>Entrada/Saída</t>
+  </si>
+  <si>
+    <t>Atendente</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESTOQUE ATUAL </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -79,93 +112,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -453,221 +424,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="18.1796875" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="12.7265625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="9.7265625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="10.7265625" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="13.54296875" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="15.1796875" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="13.54296875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Data e Hora</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Entrada/Saída</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Atendente</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Quantidade</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Tipo</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ESTOQUE ATUAL </t>
-        </is>
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
       <c r="G1">
         <f>SUMIF(B$2:B$1048576,"Entrada",D$2:D$1048576)-SUMIF(B$2:B$1048576,"Sa&amp;#237;da",D$2:D$1048576)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1">
-      <c r="D2" s="3" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1">
-      <c r="D3" s="3" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="D4" s="3" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>06/05/2024 15:42:13</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>mathues</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NPH</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>06/05/2024 15:42:19</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>mathues</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06/05/2024 15:42:29</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Entrada</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>mathues</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>5</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>06/05/2024 15:42:35</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>mathues</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>06/05/2024 15:42:36</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>mathues</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>5</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Regular</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>06/05/2024 15:42:42</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Saída</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>mathues</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>5</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NPH</t>
-        </is>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
